--- a/TestTwoMachine.xlsx
+++ b/TestTwoMachine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Johnson'sRule\OM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{181B2D83-C2B3-4591-B613-1936494C4D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AC5093-9DC1-45FA-A9C6-6DAC363ECB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D92B3AFC-499A-4356-8267-8E284FAD6FCE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Job</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,30 +36,6 @@
   </si>
   <si>
     <t>machine 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +403,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -444,8 +420,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -455,8 +431,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -466,8 +442,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -477,8 +453,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -488,8 +464,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -499,8 +475,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7">
         <v>12</v>
